--- a/biology/Zoologie/Geoemydidae/Geoemydidae.xlsx
+++ b/biology/Zoologie/Geoemydidae/Geoemydidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Geoemydidae sont une famille de tortues d'eau douce cryptodires (exceptés les Vijayachelys et quelques Rhinoclemmys qui sont terrestres). Cette famille a été décrite par William Theobald en 1868[1]. Elle compte deux sous-familles, dix-neuf genres et soixante-et-onze espèces.
-Parmi les 25 tortues du monde les plus menacées d'extinction, 13 sont des géoémydidés menacés par la surexploitation de leur chair et de leurs supposées vertus médicinales[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Geoemydidae sont une famille de tortues d'eau douce cryptodires (exceptés les Vijayachelys et quelques Rhinoclemmys qui sont terrestres). Cette famille a été décrite par William Theobald en 1868. Elle compte deux sous-familles, dix-neuf genres et soixante-et-onze espèces.
+Parmi les 25 tortues du monde les plus menacées d'extinction, 13 sont des géoémydidés menacés par la surexploitation de leur chair et de leurs supposées vertus médicinales.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent presque toutes en Asie, principalement en Asie du Sud-Est, exceptés le genre Mauremys que l'on trouve en Asie, en Europe et Afrique du nord ainsi que le genre Rhinoclemmys que l'on trouve en Amérique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent presque toutes en Asie, principalement en Asie du Sud-Est, exceptés le genre Mauremys que l'on trouve en Asie, en Europe et Afrique du nord ainsi que le genre Rhinoclemmys que l'on trouve en Amérique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon TFTSG  (8 janvier 2012)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon TFTSG  (8 janvier 2012) :
 sous-famille Geoemydinae Theobald, 1968
 genre Batagur Gray, 1856
 genre Cuora Gray, 1856
@@ -614,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Theobald, 1868 : Catalogue of reptiles in the museum of the Asiatic Society of Bengal. Journal of the Asiatic Society, Calcutta, extra number 146, p. 7-88.</t>
         </is>
